--- a/Atividade8-MLP/Branch_and_Bound/scores_unbalanced-Branch_and_Bound-Sem_Normalizacao_MLPClassifier.xlsx
+++ b/Atividade8-MLP/Branch_and_Bound/scores_unbalanced-Branch_and_Bound-Sem_Normalizacao_MLPClassifier.xlsx
@@ -8089,7 +8089,7 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I265" t="s">
         <v>11</v>
@@ -11047,7 +11047,7 @@
         <v>0</v>
       </c>
       <c r="H367">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I367" t="s">
         <v>11</v>
@@ -11337,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I377" t="s">
         <v>11</v>
@@ -11685,7 +11685,7 @@
         <v>0</v>
       </c>
       <c r="H389">
-        <v>0.8953488372093024</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I389" t="s">
         <v>11</v>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
       <c r="H419">
-        <v>0.9302325581395348</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I419" t="s">
         <v>11</v>
@@ -12642,7 +12642,7 @@
         <v>0</v>
       </c>
       <c r="H422">
-        <v>0.9418604651162792</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I422" t="s">
         <v>11</v>
@@ -12845,7 +12845,7 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>0.9069767441860463</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I429" t="s">
         <v>11</v>
@@ -13135,7 +13135,7 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I439" t="s">
         <v>11</v>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="H479">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I479" t="s">
         <v>11</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
       <c r="H489">
-        <v>0.8953488372093024</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I489" t="s">
         <v>11</v>
@@ -15049,7 +15049,7 @@
         <v>0</v>
       </c>
       <c r="H505">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I505" t="s">
         <v>11</v>
@@ -15107,7 +15107,7 @@
         <v>0</v>
       </c>
       <c r="H507">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I507" t="s">
         <v>11</v>
@@ -16209,7 +16209,7 @@
         <v>0</v>
       </c>
       <c r="H545">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I545" t="s">
         <v>11</v>
@@ -17369,7 +17369,7 @@
         <v>0</v>
       </c>
       <c r="H585">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I585" t="s">
         <v>11</v>
@@ -17659,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="H595">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I595" t="s">
         <v>11</v>
@@ -18297,7 +18297,7 @@
         <v>0</v>
       </c>
       <c r="H617">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I617" t="s">
         <v>11</v>
@@ -18355,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="H619">
-        <v>0.9302325581395348</v>
+        <v>0.9069767441860463</v>
       </c>
       <c r="I619" t="s">
         <v>11</v>
@@ -19689,7 +19689,7 @@
         <v>0</v>
       </c>
       <c r="H665">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I665" t="s">
         <v>11</v>
@@ -20559,7 +20559,7 @@
         <v>0</v>
       </c>
       <c r="H695">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I695" t="s">
         <v>11</v>
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="H725">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I725" t="s">
         <v>11</v>
@@ -21719,7 +21719,7 @@
         <v>0</v>
       </c>
       <c r="H735">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I735" t="s">
         <v>11</v>
@@ -21835,7 +21835,7 @@
         <v>0</v>
       </c>
       <c r="H739">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I739" t="s">
         <v>11</v>
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="H769">
-        <v>0.8837209302325582</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I769" t="s">
         <v>11</v>
@@ -23227,7 +23227,7 @@
         <v>0</v>
       </c>
       <c r="H787">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I787" t="s">
         <v>11</v>
@@ -23807,7 +23807,7 @@
         <v>0</v>
       </c>
       <c r="H807">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I807" t="s">
         <v>11</v>
@@ -24097,7 +24097,7 @@
         <v>0</v>
       </c>
       <c r="H817">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I817" t="s">
         <v>11</v>
@@ -24213,7 +24213,7 @@
         <v>0</v>
       </c>
       <c r="H821">
-        <v>0.9176470588235294</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I821" t="s">
         <v>11</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="H829">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I829" t="s">
         <v>11</v>
@@ -25025,7 +25025,7 @@
         <v>0</v>
       </c>
       <c r="H849">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I849" t="s">
         <v>11</v>
@@ -25489,7 +25489,7 @@
         <v>0</v>
       </c>
       <c r="H865">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I865" t="s">
         <v>11</v>
@@ -25982,7 +25982,7 @@
         <v>0</v>
       </c>
       <c r="H882">
-        <v>0.9418604651162792</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I882" t="s">
         <v>11</v>
@@ -26069,7 +26069,7 @@
         <v>0</v>
       </c>
       <c r="H885">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I885" t="s">
         <v>11</v>
@@ -26185,7 +26185,7 @@
         <v>0</v>
       </c>
       <c r="H889">
-        <v>0.8837209302325582</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I889" t="s">
         <v>11</v>
@@ -26475,7 +26475,7 @@
         <v>0</v>
       </c>
       <c r="H899">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I899" t="s">
         <v>11</v>
@@ -27055,7 +27055,7 @@
         <v>0</v>
       </c>
       <c r="H919">
-        <v>0.8837209302325582</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I919" t="s">
         <v>11</v>
@@ -27287,7 +27287,7 @@
         <v>0</v>
       </c>
       <c r="H927">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I927" t="s">
         <v>11</v>
@@ -27345,7 +27345,7 @@
         <v>0</v>
       </c>
       <c r="H929">
-        <v>0.8720930232558141</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I929" t="s">
         <v>11</v>
@@ -27519,7 +27519,7 @@
         <v>0</v>
       </c>
       <c r="H935">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I935" t="s">
         <v>11</v>
@@ -27809,7 +27809,7 @@
         <v>0</v>
       </c>
       <c r="H945">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I945" t="s">
         <v>11</v>
@@ -28035,13 +28035,13 @@
         <v>2</v>
       </c>
       <c r="F953">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G953">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H953">
-        <v>0.9534883720930232</v>
+        <v>0.9418604651162792</v>
       </c>
       <c r="I953" t="s">
         <v>11</v>
@@ -28505,7 +28505,7 @@
         <v>0</v>
       </c>
       <c r="H969">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I969" t="s">
         <v>11</v>
@@ -28592,7 +28592,7 @@
         <v>0</v>
       </c>
       <c r="H972">
-        <v>0.9418604651162792</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I972" t="s">
         <v>11</v>
@@ -28679,7 +28679,7 @@
         <v>0</v>
       </c>
       <c r="H975">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I975" t="s">
         <v>11</v>
@@ -29317,7 +29317,7 @@
         <v>0</v>
       </c>
       <c r="H997">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I997" t="s">
         <v>11</v>
@@ -29404,7 +29404,7 @@
         <v>0</v>
       </c>
       <c r="H1000">
-        <v>0.9294117647058824</v>
+        <v>0.9411764705882352</v>
       </c>
       <c r="I1000" t="s">
         <v>11</v>
@@ -29549,7 +29549,7 @@
         <v>0</v>
       </c>
       <c r="H1005">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1005" t="s">
         <v>11</v>
@@ -29607,7 +29607,7 @@
         <v>0</v>
       </c>
       <c r="H1007">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I1007" t="s">
         <v>11</v>
@@ -29955,7 +29955,7 @@
         <v>0</v>
       </c>
       <c r="H1019">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1019" t="s">
         <v>11</v>
@@ -30535,7 +30535,7 @@
         <v>0</v>
       </c>
       <c r="H1039">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1039" t="s">
         <v>11</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="H1045">
-        <v>0.9186046511627908</v>
+        <v>0.9302325581395348</v>
       </c>
       <c r="I1045" t="s">
         <v>11</v>
@@ -30825,7 +30825,7 @@
         <v>0</v>
       </c>
       <c r="H1049">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1049" t="s">
         <v>11</v>
@@ -31115,7 +31115,7 @@
         <v>0</v>
       </c>
       <c r="H1059">
-        <v>0.9302325581395348</v>
+        <v>0.8953488372093024</v>
       </c>
       <c r="I1059" t="s">
         <v>11</v>
@@ -31579,7 +31579,7 @@
         <v>0</v>
       </c>
       <c r="H1075">
-        <v>0.9302325581395348</v>
+        <v>0.9186046511627908</v>
       </c>
       <c r="I1075" t="s">
         <v>11</v>
